--- a/Content/TPE/GameData/TPECharacterData.xlsx
+++ b/Content/TPE/GameData/TPECharacterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Writing\Assets\Chapter12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harbe\Desktop\Samples\Project-TPE 4.21\Content\TPE\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66C002-F37E-49DD-8C8E-69AC22739F87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039C369-AFF9-4DC9-8903-088B75C5C0A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,19 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D538BA-27C2-42AB-99FE-D911400E397E}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -437,16 +442,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -457,16 +465,19 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -477,16 +488,19 @@
         <v>200</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>15</v>
       </c>
       <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -497,16 +511,19 @@
         <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -517,16 +534,19 @@
         <v>400</v>
       </c>
       <c r="D6" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>25</v>
       </c>
       <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -537,16 +557,19 @@
         <v>500</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
       </c>
       <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -557,16 +580,19 @@
         <v>600</v>
       </c>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
         <v>35</v>
       </c>
       <c r="F8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -577,16 +603,19 @@
         <v>700</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
       </c>
       <c r="F9" s="1">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -597,16 +626,19 @@
         <v>800</v>
       </c>
       <c r="D10" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
         <v>45</v>
       </c>
       <c r="F10" s="1">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -617,16 +649,19 @@
         <v>900</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
       <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -637,16 +672,19 @@
         <v>1000</v>
       </c>
       <c r="D12" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>55</v>
       </c>
       <c r="F12" s="1">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -657,16 +695,19 @@
         <v>1100</v>
       </c>
       <c r="D13" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
         <v>60</v>
       </c>
       <c r="F13" s="1">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -677,16 +718,19 @@
         <v>1200</v>
       </c>
       <c r="D14" s="1">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>65</v>
       </c>
       <c r="F14" s="1">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -697,16 +741,19 @@
         <v>1300</v>
       </c>
       <c r="D15" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>70</v>
       </c>
       <c r="F15" s="1">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -717,16 +764,19 @@
         <v>1400</v>
       </c>
       <c r="D16" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>75</v>
       </c>
       <c r="F16" s="1">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -737,16 +787,19 @@
         <v>1500</v>
       </c>
       <c r="D17" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>80</v>
       </c>
       <c r="F17" s="1">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -757,16 +810,19 @@
         <v>1600</v>
       </c>
       <c r="D18" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>85</v>
       </c>
       <c r="F18" s="1">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -777,16 +833,19 @@
         <v>1700</v>
       </c>
       <c r="D19" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>90</v>
       </c>
       <c r="F19" s="1">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -797,16 +856,19 @@
         <v>1800</v>
       </c>
       <c r="D20" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>95</v>
       </c>
       <c r="F20" s="1">
+        <v>95</v>
+      </c>
+      <c r="G20" s="1">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -823,10 +885,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -837,12 +902,15 @@
         <v>2000</v>
       </c>
       <c r="D22" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>105</v>
       </c>
       <c r="F22" s="1">
+        <v>105</v>
+      </c>
+      <c r="G22" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/Content/TPE/GameData/TPECharacterData.xlsx
+++ b/Content/TPE/GameData/TPECharacterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harbe\Desktop\Samples\Project-TPE 4.21\Content\TPE\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harbe\Desktop\Samples\TPE\Content\TPE\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039C369-AFF9-4DC9-8903-088B75C5C0A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6AA9F-5784-45F6-AEEC-C265CE2F0049}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>MaxStamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D538BA-27C2-42AB-99FE-D911400E397E}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,7 +435,7 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -445,16 +449,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -468,16 +475,19 @@
         <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
       <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,16 +501,19 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
         <v>15</v>
       </c>
       <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -514,16 +527,19 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
       </c>
       <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -537,16 +553,19 @@
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
         <v>25</v>
       </c>
       <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -560,16 +579,19 @@
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>
       <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -583,16 +605,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
         <v>35</v>
       </c>
       <c r="G8" s="1">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -606,16 +631,19 @@
         <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
       </c>
       <c r="G9" s="1">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -629,16 +657,19 @@
         <v>100</v>
       </c>
       <c r="E10" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
         <v>45</v>
       </c>
       <c r="G10" s="1">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -652,16 +683,19 @@
         <v>100</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
         <v>50</v>
       </c>
       <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -675,16 +709,19 @@
         <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>55</v>
       </c>
       <c r="G12" s="1">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -698,16 +735,19 @@
         <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
         <v>60</v>
       </c>
       <c r="G13" s="1">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -721,16 +761,19 @@
         <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
         <v>65</v>
       </c>
       <c r="G14" s="1">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -744,16 +787,19 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1">
         <v>70</v>
       </c>
       <c r="G15" s="1">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -767,16 +813,19 @@
         <v>100</v>
       </c>
       <c r="E16" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
         <v>75</v>
       </c>
       <c r="G16" s="1">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -790,16 +839,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <v>80</v>
       </c>
       <c r="G17" s="1">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -813,16 +865,19 @@
         <v>100</v>
       </c>
       <c r="E18" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>85</v>
       </c>
       <c r="G18" s="1">
+        <v>85</v>
+      </c>
+      <c r="H18" s="1">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -836,16 +891,19 @@
         <v>100</v>
       </c>
       <c r="E19" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1">
         <v>90</v>
       </c>
       <c r="G19" s="1">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -859,16 +917,19 @@
         <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1">
         <v>95</v>
       </c>
       <c r="G20" s="1">
+        <v>95</v>
+      </c>
+      <c r="H20" s="1">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -888,10 +949,13 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -905,17 +969,21 @@
         <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
         <v>105</v>
       </c>
       <c r="G22" s="1">
+        <v>105</v>
+      </c>
+      <c r="H22" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>